--- a/database/seeders/_khoa_hoc_seeder.xlsx
+++ b/database/seeders/_khoa_hoc_seeder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="khoa_hoc" sheetId="7" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
-    <t>bai_giang_1_5.pdf</t>
-  </si>
-  <si>
     <t>1) GV phát phiếu học tập.
 - Hãy ghi vào ô chữ Đ trước những hành vi đúng, chữ S trước những hành vi sai (Câu hỏi bài 4 vở bài tập Đạo đức trang 7).
 2) Thảo luận theo nhóm 2 người.
@@ -51,9 +48,6 @@
     <t>Giữ lời hứa</t>
   </si>
   <si>
-    <t>bai_giang_1_4.pdf</t>
-  </si>
-  <si>
     <t>1 Thảo luận: Qua câu chuyện em thấy tình cảm giữa Bác Hồ và các cháu Thiếu nhi như thế nào?
 2. Tìm hiểu về 5 điều Bác Hồ dạy.
 - GV củng cố lại nội dung 5 điều Bác Hồ dạy Thiếu niên Nhi đồng.
@@ -64,9 +58,6 @@
     <t>Kính yêu Bác Hồ</t>
   </si>
   <si>
-    <t>bai_giang_1_3.pdf</t>
-  </si>
-  <si>
     <t>Thực hành thở sâu:
 - GV hướng dẫn HS cách thở sâu: “Bịt mũi nín thở”
 - GV hướng dẫn HS chơi trò chơi:
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>HOẠT ĐỘNG MỞ VÀ CƠ QUAN HÔ HẤP</t>
-  </si>
-  <si>
-    <t>bai_giang_1_2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve"> Tại sao ta nên thở bằng mũi mà không nên thở bằng miệng?
@@ -107,9 +95,6 @@
     <t>NÊN THỞ NHƯ THẾ NÀO?</t>
   </si>
   <si>
-    <t>bai_giang_1_1.pdf</t>
-  </si>
-  <si>
     <t>Tự nhiên xã hội
 An toàn khi đi xe đạp
 I/ Mục tiêu:
@@ -140,24 +125,6 @@
     <t>tenbaigiang</t>
   </si>
   <si>
-    <t>khoahoc/belamgame/3.png</t>
-  </si>
-  <si>
-    <t>khoahoc/belamgame/2.png</t>
-  </si>
-  <si>
-    <t>khoahoc/belamgame/1.png</t>
-  </si>
-  <si>
-    <t>khoahoc/mncn/3.png</t>
-  </si>
-  <si>
-    <t>khoahoc/mncn/2.png</t>
-  </si>
-  <si>
-    <t>khoahoc/mncn/1.png</t>
-  </si>
-  <si>
     <t>duongdan</t>
   </si>
   <si>
@@ -334,24 +301,15 @@
     <t>Bộ thực hành lắp ghép robo</t>
   </si>
   <si>
-    <t>hoccu/1.png</t>
-  </si>
-  <si>
     <t>Đầy đủ</t>
   </si>
   <si>
     <t>Kit thực hành</t>
   </si>
   <si>
-    <t>hoccu/2.png</t>
-  </si>
-  <si>
     <t>Laptop thực hành</t>
   </si>
   <si>
-    <t>hoccu/3.png</t>
-  </si>
-  <si>
     <t>Bài tập về nhà</t>
   </si>
   <si>
@@ -428,6 +386,48 @@
   </si>
   <si>
     <t>Nga</t>
+  </si>
+  <si>
+    <t>baigiang/bai_giang_1_1.pdf</t>
+  </si>
+  <si>
+    <t>baigiang/bai_giang_1_2.pdf</t>
+  </si>
+  <si>
+    <t>baigiang/bai_giang_1_3.pdf</t>
+  </si>
+  <si>
+    <t>baigiang/bai_giang_1_4.pdf</t>
+  </si>
+  <si>
+    <t>baigiang/bai_giang_1_5.pdf</t>
+  </si>
+  <si>
+    <t>anh/hoccu/1.png</t>
+  </si>
+  <si>
+    <t>anh/hoccu/2.png</t>
+  </si>
+  <si>
+    <t>anh/hoccu/3.png</t>
+  </si>
+  <si>
+    <t>anh/khoahoc/mncn/1.png</t>
+  </si>
+  <si>
+    <t>anh/khoahoc/mncn/2.png</t>
+  </si>
+  <si>
+    <t>anh/khoahoc/mncn/3.png</t>
+  </si>
+  <si>
+    <t>anh/khoahoc/belamgame/1.png</t>
+  </si>
+  <si>
+    <t>anh/khoahoc/belamgame/2.png</t>
+  </si>
+  <si>
+    <t>anh/khoahoc/belamgame/3.png</t>
   </si>
 </sst>
 </file>
@@ -798,51 +798,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>80000</v>
@@ -856,22 +856,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>1000000</v>
@@ -885,22 +885,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>1500000</v>
@@ -914,22 +914,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
         <v>1500000</v>
@@ -943,22 +943,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>1500000</v>
@@ -972,22 +972,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>1500000</v>
@@ -1001,22 +1001,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
@@ -1030,22 +1030,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2">
         <v>2000000</v>
@@ -1068,26 +1068,26 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,33 +1157,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1232,109 +1232,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="3">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,61 +1455,61 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -1517,29 +1517,29 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -1547,29 +1547,29 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
@@ -1577,23 +1577,23 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
@@ -1601,23 +1601,23 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>

--- a/database/seeders/_khoa_hoc_seeder.xlsx
+++ b/database/seeders/_khoa_hoc_seeder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="khoa_hoc" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>1) GV phát phiếu học tập.
 - Hãy ghi vào ô chữ Đ trước những hành vi đúng, chữ S trước những hành vi sai (Câu hỏi bài 4 vở bài tập Đạo đức trang 7).
@@ -316,9 +316,6 @@
     <t>Trắc nghiệm</t>
   </si>
   <si>
-    <t>Tự luận</t>
-  </si>
-  <si>
     <t>baitap/1.png</t>
   </si>
   <si>
@@ -382,12 +379,6 @@
     <t>Nhà thờ thánh Basil là công trình của nước nào?</t>
   </si>
   <si>
-    <t>Pháp</t>
-  </si>
-  <si>
-    <t>Nga</t>
-  </si>
-  <si>
     <t>baigiang/bai_giang_1_1.pdf</t>
   </si>
   <si>
@@ -428,6 +419,12 @@
   </si>
   <si>
     <t>anh/khoahoc/belamgame/3.png</t>
+  </si>
+  <si>
+    <t>Các đáp án trên đều sai</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -475,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,7 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,7 +1083,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1095,7 +1091,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1103,7 +1099,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1111,7 +1107,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1119,7 +1115,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1127,7 +1123,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1177,7 +1173,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1194,7 +1190,7 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1211,7 +1207,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1232,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1267,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -1283,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -1299,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3">
         <v>7</v>
@@ -1315,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3">
         <v>7</v>
@@ -1331,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
@@ -1437,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,23 +1489,25 @@
         <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -1523,23 +1521,25 @@
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -1553,23 +1553,25 @@
         <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
@@ -1580,20 +1582,28 @@
         <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
@@ -1604,20 +1614,28 @@
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>

--- a/database/seeders/_khoa_hoc_seeder.xlsx
+++ b/database/seeders/_khoa_hoc_seeder.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\source\repos\DoAn_Final\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DoAn\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A240DF6B-5CB8-4CE4-911B-9B3022BBE088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khoa_hoc" sheetId="7" r:id="rId1"/>
     <sheet name="hinh_anh_khoa_hoc" sheetId="3" r:id="rId2"/>
-    <sheet name="hoc_cu" sheetId="4" r:id="rId3"/>
-    <sheet name="bai_giang" sheetId="2" r:id="rId4"/>
-    <sheet name="bai_tap" sheetId="6" r:id="rId5"/>
+    <sheet name="kho_hoc_cu" sheetId="9" r:id="rId3"/>
+    <sheet name="hoc_cu" sheetId="4" r:id="rId4"/>
+    <sheet name="bai_giang" sheetId="2" r:id="rId5"/>
+    <sheet name="bai_tap" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
   <si>
     <t>1) GV phát phiếu học tập.
 - Hãy ghi vào ô chữ Đ trước những hành vi đúng, chữ S trước những hành vi sai (Câu hỏi bài 4 vở bài tập Đạo đức trang 7).
@@ -426,16 +428,31 @@
   <si>
     <t>hinhanhkhoahoc/mncn_3.jpg</t>
   </si>
+  <si>
+    <t>tenhoccu</t>
+  </si>
+  <si>
+    <t>hinhanhhoccu</t>
+  </si>
+  <si>
+    <t>capphat</t>
+  </si>
+  <si>
+    <t>anh/hoccu/4.png</t>
+  </si>
+  <si>
+    <t>kho_hoc_cu_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -771,28 +788,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="55" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="19.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2"/>
+    <col min="8" max="8" width="19.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -821,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -850,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -879,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -908,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -937,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -966,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -995,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1060,20 +1077,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1105,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1113,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -1121,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1135,88 +1152,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD1EA7-07B5-4784-A1BE-B11385664B85}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1225,203 +1227,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1430,26 +1331,231 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.125" style="1"/>
+    <col min="10" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
